--- a/model/results/green_ggpos_h2obl/v_abated.xlsx
+++ b/model/results/green_ggpos_h2obl/v_abated.xlsx
@@ -629,7 +629,7 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>127029.8880597017</v>
+        <v>1326502.663134329</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>232948.7159999998</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>127156.9179477613</v>
+        <v>1327829.165797463</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>233181.6647159998</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>127284.0748657091</v>
+        <v>1329156.99496326</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>233414.8463807158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>127411.3589405748</v>
+        <v>1330486.151958223</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1453312.077538167</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -872,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>441692.7109939925</v>
+        <v>3180486.082535076</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>233648.2612270965</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -925,13 +925,13 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>127538.7702995153</v>
+        <v>1331816.638110181</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1454765.389615705</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>442134.4037049866</v>
+        <v>3183666.568617612</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>233881.9094883236</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -999,19 +999,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>127666.3090698148</v>
+        <v>1333148.454748291</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1456220.15500532</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1262937.842593239</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>442576.5381086915</v>
+        <v>3186850.235186229</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>234115.7913978119</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>127793.9753788846</v>
+        <v>1334481.603203039</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1457676.375160326</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1264200.780435832</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>443019.1146468001</v>
+        <v>3190037.085421415</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>234349.9071892096</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>937399.6287568391</v>
       </c>
       <c r="M9" t="n">
-        <v>234349.9071892097</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>127921.7693542635</v>
+        <v>1335816.084806242</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1459134.051535486</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1265464.981216268</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>443462.1337614469</v>
+        <v>3193227.122506835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>234584.2570963989</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>938337.0283855959</v>
       </c>
       <c r="M10" t="n">
-        <v>234584.2570963989</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1221,31 +1221,31 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>128049.6911236178</v>
+        <v>1337151.900891048</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1266730.446197482</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1266730.446197484</v>
       </c>
       <c r="G11" t="n">
-        <v>10867150.45335768</v>
+        <v>1841696.024200617</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>443905.5958952082</v>
+        <v>3196420.349629342</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>234818.8413534952</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>2113369.572181458</v>
       </c>
       <c r="M11" t="n">
-        <v>234818.8413534952</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1295,31 +1295,31 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>128177.7408147414</v>
+        <v>1338489.052791939</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1267997.17664368</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1267997.17664368</v>
       </c>
       <c r="G12" t="n">
-        <v>10878017.60381104</v>
+        <v>1843537.720224816</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>444349.5014911034</v>
+        <v>3199616.769978971</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>235053.6601948487</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>2115482.941753639</v>
       </c>
       <c r="M12" t="n">
-        <v>235053.6601948487</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1369,31 +1369,31 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>128305.9185555561</v>
+        <v>1339827.541844731</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1269265.173820323</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1269265.173820323</v>
       </c>
       <c r="G13" t="n">
-        <v>10888895.62141484</v>
+        <v>1845381.257945042</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>444793.8509925945</v>
+        <v>3202816.38674895</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>235288.7138550435</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>2117598.424695393</v>
       </c>
       <c r="M13" t="n">
-        <v>235288.7138550435</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>137746.1557246222</v>
+        <v>137746.1557246221</v>
       </c>
     </row>
     <row r="14">
@@ -1443,31 +1443,31 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>128434.2244741116</v>
+        <v>1341167.369386576</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1270534.438994144</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1270534.438994143</v>
       </c>
       <c r="G14" t="n">
-        <v>10899784.51703626</v>
+        <v>1847226.639202987</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>445238.6448435871</v>
+        <v>3194598.461377009</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>235524.0025688985</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>2119716.023120088</v>
       </c>
       <c r="M14" t="n">
-        <v>235524.0025688985</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1517,31 +1517,31 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>128562.6586985857</v>
+        <v>1342508.536755962</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1271804.973433138</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1271804.973433137</v>
       </c>
       <c r="G15" t="n">
-        <v>10910684.3015533</v>
+        <v>1849073.86584219</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>445683.8834884306</v>
+        <v>3186372.318079694</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>235759.5265714674</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>2121835.739143208</v>
       </c>
       <c r="M15" t="n">
-        <v>235759.5265714674</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1591,31 +1591,31 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>128691.2213572843</v>
+        <v>1003573.741442983</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>636538.3892032853</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1273076.77840657</v>
       </c>
       <c r="G16" t="n">
-        <v>10921594.98585485</v>
+        <v>3949018.818569621</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>446129.5673719193</v>
+        <v>3097132.60348037</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>235995.2860980389</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>2123957.574882351</v>
       </c>
       <c r="M16" t="n">
-        <v>235995.2860980388</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>128819.9125786416</v>
+        <v>894297.0392549579</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1677,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2938757.365664215</v>
       </c>
       <c r="G17" t="n">
-        <v>10932516.5808407</v>
+        <v>3952967.83738819</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>446575.6969392911</v>
+        <v>3100229.736083854</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>236231.2813841369</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>2126081.532457232</v>
       </c>
       <c r="M17" t="n">
-        <v>236231.2813841369</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>128948.7324912202</v>
+        <v>895191.3362942128</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1751,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2941696.12302988</v>
       </c>
       <c r="G18" t="n">
-        <v>10943449.09742154</v>
+        <v>3956920.805225578</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>447022.2726362302</v>
+        <v>3103329.965819941</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>236467.512665521</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>2128207.61398969</v>
       </c>
       <c r="M18" t="n">
-        <v>236467.512665521</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>129077.6812237114</v>
+        <v>896086.5276305065</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1825,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2944637.819152909</v>
       </c>
       <c r="G19" t="n">
-        <v>10954392.54651896</v>
+        <v>3960877.726030802</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>447469.2949088663</v>
+        <v>3106433.29578576</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>236703.9801781864</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>2130335.821603679</v>
       </c>
       <c r="M19" t="n">
-        <v>236703.9801781864</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>129206.7589049351</v>
+        <v>896982.6141581372</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1899,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2947582.456972062</v>
       </c>
       <c r="G20" t="n">
-        <v>10965346.93906548</v>
+        <v>3964838.603756833</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>447916.7642037752</v>
+        <v>3109539.729081546</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>236940.6841583646</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>2132466.157425283</v>
       </c>
       <c r="M20" t="n">
-        <v>236940.6841583646</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>129335.96566384</v>
+        <v>897879.596772294</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2950530.039429033</v>
       </c>
       <c r="G21" t="n">
-        <v>10976312.28600454</v>
+        <v>3968803.442360589</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>448364.6809679788</v>
+        <v>3112649.268810617</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>237177.624842523</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>2134598.623582708</v>
       </c>
       <c r="M21" t="n">
-        <v>237177.624842523</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
